--- a/tailieu.xlsx
+++ b/tailieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\html\flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B54E54-4720-455A-9C82-868108C9A181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF863E1-D306-422C-928E-44C5340CCB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="3113" windowWidth="15951" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Type</t>
   </si>
@@ -39,15 +39,13 @@
     <t>\(\textbf{Hàm số nhiều biến số}\)</t>
   </si>
   <si>
-    <t>Cho \( M(x_1, x_2, \dots, x_n) \in \mathbb{R}^n \), \( N(y_1, y_2, \dots, y_n) \in \mathbb{R}^n \). Ký hiệu \( d(M, N) \), khoảng cách giữa \( M \) và \( N \), là số thực được tính theo công thức \( d(M, N) = \sqrt{(y_1 - x_1)^2 + (y_2 - x_2)^2 + \dots + (y_n - x_n)^2} = \sqrt{\sum_{i=1}^{n} (y_i - x_i)^2} \).
-Với \( M_0(x_1^0, x_2^0, \dots, x_n^0) \in \mathbb{R}^n \) và \( \varepsilon &gt; 0 \), tập \( B(M_0, \varepsilon) = \{M \in \mathbb{R}^n : d(M_0, M) &lt; \varepsilon \} \) được gọi là \( \varepsilon \)-lân cận hoặc lân cận bán kính \( \varepsilon \) của \( M_0 \) hoặc hình cầu mở tâm \( M_0 \) bán kính \( \varepsilon \).
-Cho \( E \subset \mathbb{R}^n \). Điểm \( M \) được gọi là điểm trong của \( E \) nếu tồn tại \( \varepsilon &gt; 0 \) sao cho \( B(M, \varepsilon) \subset E \). Điểm \( N \in \mathbb{R}^n \) được gọi là điểm biên của \( E \) nếu với bất kỳ \( \varepsilon &gt; 0 \), tập \( B(N, \varepsilon) \) đều chứa những điểm thuộc \( E \) và điểm không thuộc \( E \). Tập \( E \) được gọi là mở nếu mọi điểm của nó đều là điểm trong, gọi là đóng nếu nó chứa mọi điểm biên của nó. Tập \( E \subset \mathbb{R}^n \) được gọi là chặn hay giới nội nếu tồn tại số \( N &gt; 0 \) sao cho \( E \subset B(0, N) \).</t>
-  </si>
-  <si>
-    <t>Giới hạn của hàm số</t>
-  </si>
-  <si>
     <t>pdf/GTC1.pdf</t>
+  </si>
+  <si>
+    <t>\(\textbf{Giới hạn của hàm số}\)</t>
+  </si>
+  <si>
+    <t>\(\textbf{Giới hạn lượng giác}\)</t>
   </si>
 </sst>
 </file>
@@ -106,13 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
@@ -413,14 +408,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -432,7 +427,18 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
